--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_22.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1480716.895031769</v>
+        <v>1480716.89503177</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>143864.5255748188</v>
+        <v>142594.8568888158</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728813</v>
+        <v>9102620.618728809</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,10 +671,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>302.3551236970663</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>250.9116248270336</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -747,13 +747,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G3" t="n">
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250818</v>
@@ -826,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>155.3197306044668</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -838,7 +838,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>18.3768222575565</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>22.02087812852561</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>162.0432948109163</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1060,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>84.4526210585752</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -1075,7 +1075,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>18.37682225755673</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1145,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>25.85036383430294</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>125.8017722688489</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>134.6751203255737</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>155.3197306044665</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -1312,7 +1312,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,22 +1367,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>336.220782670754</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>323.9918595228957</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1534,22 +1534,22 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>18.37682225755661</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1585,16 +1585,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>11.0042946710584</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,22 +1607,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>40.74778256841964</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>26.64360395382627</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1777,16 +1777,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>155.3197306044667</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>54.47555601903397</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>173.4865496908555</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>290.5081575871956</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,19 +1889,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>89.78463339148466</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,16 +2053,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2084,16 +2084,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2132,13 +2132,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>159.7365432862661</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>28.44734925172043</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>63.57678144609353</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,10 +2254,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2318,19 +2318,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>340.0237825764897</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2372,19 +2372,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>119.8897042130473</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2530,10 +2530,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>190.2713935802968</v>
       </c>
       <c r="V25" t="n">
-        <v>9.461970681989216</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>21.58745075988216</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>356.681260877744</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2612,13 +2612,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2652,7 +2652,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>25.31590541686196</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2755,19 +2755,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>22.35153719005456</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2798,19 +2798,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>24.11362590222418</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,25 +2837,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>72.767692014606</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2889,7 +2889,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2962,16 +2962,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>155.3197306044666</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2992,10 +2992,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3004,13 +3004,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3038,16 +3038,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>311.4936872159398</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3089,13 +3089,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>216.1233558959136</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3193,22 +3193,22 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>18.3768222575565</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3247,13 +3247,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>223.1498336210771</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3278,13 +3278,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>298.2930677605617</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>302.3551236970663</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,13 +3317,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3363,7 +3363,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3424,10 +3424,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>68.2276977578159</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3475,13 +3475,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>201.330287938294</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>138.7510136575217</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3512,13 +3512,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>311.4936872159398</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3548,13 +3548,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3563,13 +3563,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3676,10 +3676,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>155.2114886365808</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3718,16 +3718,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>124.1699884042476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>26.94389492651078</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>49.65075760415547</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3907,16 +3907,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>70.18226380646121</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>231.7173056877565</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>111.9273983130129</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.2241675082893</v>
@@ -4037,10 +4037,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4074,7 +4074,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4135,22 +4135,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>76.37590626022377</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
-        <v>156.1708888417951</v>
+        <v>114.3028656524355</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>781.1711973675267</v>
+        <v>777.3160057778002</v>
       </c>
       <c r="C2" t="n">
-        <v>412.2086804271149</v>
+        <v>777.3160057778002</v>
       </c>
       <c r="D2" t="n">
-        <v>53.94298182036445</v>
+        <v>777.3160057778002</v>
       </c>
       <c r="E2" t="n">
-        <v>53.94298182036445</v>
+        <v>777.3160057778002</v>
       </c>
       <c r="F2" t="n">
-        <v>53.94298182036445</v>
+        <v>777.3160057778002</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>359.3521976759871</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4361,19 +4361,19 @@
         <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2225.068338306413</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V2" t="n">
-        <v>1894.005450962842</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W2" t="n">
-        <v>1541.236795692728</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X2" t="n">
-        <v>1167.771037431648</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="Y2" t="n">
-        <v>1167.771037431648</v>
+        <v>777.3160057778002</v>
       </c>
     </row>
     <row r="3">
@@ -4395,10 +4395,10 @@
         <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>709.5665374816297</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="C4" t="n">
-        <v>709.5665374816297</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="D4" t="n">
-        <v>709.5665374816297</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816297</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837193</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="G4" t="n">
         <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="X4" t="n">
-        <v>709.5665374816297</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="Y4" t="n">
-        <v>709.5665374816297</v>
+        <v>550.5654064942404</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>863.1126181035243</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="C5" t="n">
-        <v>494.1501011631125</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D5" t="n">
-        <v>494.1501011631125</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E5" t="n">
-        <v>494.1501011631125</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>494.1501011631125</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>76.18629306129941</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4595,22 +4595,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2533.46899524962</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2279.707209887712</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>1948.644322544141</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="X5" t="n">
-        <v>1639.851790143458</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="Y5" t="n">
-        <v>1249.712458167646</v>
+        <v>1595.875667274027</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4620,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4668,7 +4668,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>709.5665374816297</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>709.5665374816297</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>709.5665374816297</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E7" t="n">
-        <v>709.5665374816297</v>
+        <v>580.2158906240411</v>
       </c>
       <c r="F7" t="n">
-        <v>562.6765899837193</v>
+        <v>433.3259431261307</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>709.5665374816297</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>709.5665374816297</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>709.5665374816297</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>709.5665374816297</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>709.5665374816297</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>750.1002187247734</v>
+        <v>1168.064026826587</v>
       </c>
       <c r="C8" t="n">
-        <v>381.1377017843616</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="D8" t="n">
-        <v>381.1377017843616</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="E8" t="n">
-        <v>381.1377017843616</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F8" t="n">
-        <v>381.1377017843616</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834949</v>
+        <v>2671.037612397714</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.546461473041</v>
+        <v>2671.037612397714</v>
       </c>
       <c r="V8" t="n">
-        <v>1866.473964231779</v>
+        <v>2671.037612397714</v>
       </c>
       <c r="W8" t="n">
-        <v>1513.705308961665</v>
+        <v>2318.2689571276</v>
       </c>
       <c r="X8" t="n">
-        <v>1140.239550700585</v>
+        <v>1944.80319886652</v>
       </c>
       <c r="Y8" t="n">
-        <v>750.1002187247734</v>
+        <v>1554.663866890708</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4887,19 +4887,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="C10" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="D10" t="n">
-        <v>562.6765899837193</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="E10" t="n">
-        <v>562.6765899837193</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="F10" t="n">
-        <v>562.6765899837193</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="G10" t="n">
         <v>393.6767897220517</v>
@@ -4960,52 +4960,52 @@
         <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942401</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5015,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1580.775345511217</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C11" t="n">
-        <v>1241.158393318536</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D11" t="n">
-        <v>882.8926947117852</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="E11" t="n">
-        <v>882.8926947117852</v>
+        <v>792.1933911785536</v>
       </c>
       <c r="F11" t="n">
-        <v>471.9067899221776</v>
+        <v>381.2074863889461</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5060,31 +5060,31 @@
         <v>2544.691559791252</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W11" t="n">
-        <v>2344.380435748108</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X11" t="n">
-        <v>1970.914677487028</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y11" t="n">
-        <v>1580.775345511217</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
         <v>221.4284102424006</v>
@@ -5115,46 +5115,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="C13" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="D13" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036445</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S13" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T13" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U13" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V13" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W13" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X13" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1584.314837422907</v>
+        <v>808.0839286340179</v>
       </c>
       <c r="C14" t="n">
-        <v>1584.314837422907</v>
+        <v>439.1214116936061</v>
       </c>
       <c r="D14" t="n">
-        <v>1226.049138816156</v>
+        <v>80.85571308685564</v>
       </c>
       <c r="E14" t="n">
-        <v>840.2608862179118</v>
+        <v>80.85571308685564</v>
       </c>
       <c r="F14" t="n">
-        <v>799.1015098861748</v>
+        <v>80.85571308685564</v>
       </c>
       <c r="G14" t="n">
-        <v>381.1377017843616</v>
+        <v>80.85571308685564</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.149091018222</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W14" t="n">
-        <v>2344.380435748108</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X14" t="n">
-        <v>1970.914677487028</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y14" t="n">
-        <v>1970.914677487028</v>
+        <v>1194.68376869814</v>
       </c>
     </row>
     <row r="15">
@@ -5352,22 +5352,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N15" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
         <v>2188.831293537797</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R16" t="n">
-        <v>550.5654064942404</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="S16" t="n">
-        <v>336.2769833124031</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="T16" t="n">
-        <v>108.9687959810048</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="U16" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="V16" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942403</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>751.6104138473588</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="C17" t="n">
-        <v>382.6478969069471</v>
+        <v>1920.38922933819</v>
       </c>
       <c r="D17" t="n">
-        <v>207.4089578252748</v>
+        <v>1562.123530731439</v>
       </c>
       <c r="E17" t="n">
-        <v>207.4089578252748</v>
+        <v>1176.335278133195</v>
       </c>
       <c r="F17" t="n">
-        <v>207.4089578252748</v>
+        <v>765.3493733435873</v>
       </c>
       <c r="G17" t="n">
-        <v>207.4089578252748</v>
+        <v>347.3855652417742</v>
       </c>
       <c r="H17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036445</v>
@@ -5519,7 +5519,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5540,25 +5540,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U17" t="n">
-        <v>2212.181128500977</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V17" t="n">
-        <v>1881.118241157406</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W17" t="n">
-        <v>1528.349585887292</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X17" t="n">
-        <v>1528.349585887292</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="Y17" t="n">
-        <v>1138.210253911481</v>
+        <v>2289.351746278601</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036423</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204941</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M18" t="n">
         <v>1194.968834417902</v>
@@ -5613,22 +5613,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I19" t="n">
         <v>53.94298182036445</v>
@@ -5701,22 +5701,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V19" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1166.959449965771</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C20" t="n">
-        <v>797.9969330253591</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D20" t="n">
-        <v>439.7312344186087</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E20" t="n">
-        <v>53.94298182036445</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F20" t="n">
-        <v>53.94298182036445</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G20" t="n">
         <v>53.94298182036445</v>
@@ -5750,13 +5750,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5780,22 +5780,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U20" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V20" t="n">
-        <v>2317.164380266784</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W20" t="n">
-        <v>2317.164380266784</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X20" t="n">
-        <v>1943.698622005704</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y20" t="n">
-        <v>1553.559290029893</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="21">
@@ -5829,19 +5829,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
         <v>2188.831293537797</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>546.4805193761945</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C22" t="n">
-        <v>546.4805193761945</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D22" t="n">
-        <v>517.7458231623355</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E22" t="n">
-        <v>369.8327295799424</v>
+        <v>663.910013048764</v>
       </c>
       <c r="F22" t="n">
-        <v>222.942782082032</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I22" t="n">
         <v>53.94298182036445</v>
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1251.855211652197</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C23" t="n">
-        <v>882.8926947117852</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="D23" t="n">
-        <v>882.8926947117852</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="E23" t="n">
-        <v>882.8926947117852</v>
+        <v>808.3872528488505</v>
       </c>
       <c r="F23" t="n">
-        <v>471.9067899221776</v>
+        <v>397.4013480592429</v>
       </c>
       <c r="G23" t="n">
         <v>53.94298182036445</v>
@@ -6020,19 +6020,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>2443.387305656314</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V23" t="n">
-        <v>2112.324418312743</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W23" t="n">
-        <v>1759.555763042629</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X23" t="n">
-        <v>1759.555763042629</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y23" t="n">
-        <v>1638.455051716319</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="24">
@@ -6072,19 +6072,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>2321.694245121008</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U25" t="n">
-        <v>2032.520634775576</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1975.94687169884</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C26" t="n">
-        <v>1954.141365880777</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="D26" t="n">
-        <v>1595.875667274027</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="E26" t="n">
-        <v>1210.087414675782</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="F26" t="n">
-        <v>799.1015098861748</v>
+        <v>414.2270837170756</v>
       </c>
       <c r="G26" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
         <v>53.94298182036445</v>
@@ -6224,13 +6224,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6260,16 +6260,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V26" t="n">
-        <v>2366.086203674652</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W26" t="n">
-        <v>2366.086203674652</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X26" t="n">
-        <v>2366.086203674652</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y26" t="n">
-        <v>1975.94687169884</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="27">
@@ -6306,13 +6306,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
         <v>1748.695370517453</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036445</v>
+        <v>2515.500626187983</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036445</v>
+        <v>2346.564443260076</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036445</v>
+        <v>2196.44780384774</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>2048.534710265347</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K28" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L28" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q28" t="n">
-        <v>705.5516739134498</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R28" t="n">
-        <v>557.4050153476338</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S28" t="n">
-        <v>343.1165921657965</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T28" t="n">
-        <v>343.1165921657965</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U28" t="n">
-        <v>53.94298182036445</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V28" t="n">
-        <v>53.94298182036445</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W28" t="n">
-        <v>53.94298182036445</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036445</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036445</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1219.679656148628</v>
+        <v>1603.407129497228</v>
       </c>
       <c r="C29" t="n">
-        <v>850.7171392082162</v>
+        <v>1234.444612556817</v>
       </c>
       <c r="D29" t="n">
-        <v>850.7171392082162</v>
+        <v>1234.444612556817</v>
       </c>
       <c r="E29" t="n">
-        <v>464.928886609972</v>
+        <v>1234.444612556817</v>
       </c>
       <c r="F29" t="n">
-        <v>53.94298182036445</v>
+        <v>823.4587077672093</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>405.4948996653961</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>78.30017970139897</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6485,28 +6485,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U29" t="n">
-        <v>2443.387305656314</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V29" t="n">
-        <v>2369.884586449641</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W29" t="n">
-        <v>2369.884586449641</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X29" t="n">
-        <v>1996.418828188561</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y29" t="n">
-        <v>1606.27949621275</v>
+        <v>1603.407129497228</v>
       </c>
     </row>
     <row r="30">
@@ -6546,19 +6546,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2519.585513306029</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C31" t="n">
-        <v>2519.585513306029</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D31" t="n">
-        <v>2519.585513306029</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E31" t="n">
-        <v>2519.585513306029</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F31" t="n">
-        <v>2519.585513306029</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
-        <v>2362.69689653384</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>2204.94852396637</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>2519.585513306029</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>2519.585513306029</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>2519.585513306029</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>2519.585513306029</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V31" t="n">
-        <v>2519.585513306029</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W31" t="n">
-        <v>2519.585513306029</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X31" t="n">
-        <v>2519.585513306029</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y31" t="n">
-        <v>2519.585513306029</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6674,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1320.425425970681</v>
+        <v>2310.5492509541</v>
       </c>
       <c r="C32" t="n">
-        <v>951.4629090302697</v>
+        <v>1941.586734013689</v>
       </c>
       <c r="D32" t="n">
-        <v>593.1972104235191</v>
+        <v>1583.321035406938</v>
       </c>
       <c r="E32" t="n">
-        <v>207.4089578252748</v>
+        <v>1197.532782808694</v>
       </c>
       <c r="F32" t="n">
-        <v>207.4089578252748</v>
+        <v>786.5468780190865</v>
       </c>
       <c r="G32" t="n">
-        <v>207.4089578252748</v>
+        <v>368.5830699172734</v>
       </c>
       <c r="H32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6725,25 +6725,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U32" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V32" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W32" t="n">
-        <v>2084.030516207573</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X32" t="n">
-        <v>1710.564757946493</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y32" t="n">
-        <v>1320.425425970681</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="33">
@@ -6777,7 +6777,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
         <v>266.2060027641994</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C34" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D34" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.963088632153</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F34" t="n">
-        <v>2022.963088632153</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G34" t="n">
-        <v>2022.963088632153</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632153</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W34" t="n">
-        <v>2471.7452186737</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X34" t="n">
-        <v>2243.755667775683</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y34" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6911,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1194.175505447095</v>
+        <v>777.3160057778002</v>
       </c>
       <c r="C35" t="n">
-        <v>1194.175505447095</v>
+        <v>777.3160057778002</v>
       </c>
       <c r="D35" t="n">
-        <v>835.9098068403443</v>
+        <v>777.3160057778002</v>
       </c>
       <c r="E35" t="n">
-        <v>835.9098068403443</v>
+        <v>777.3160057778002</v>
       </c>
       <c r="F35" t="n">
-        <v>835.9098068403443</v>
+        <v>777.3160057778002</v>
       </c>
       <c r="G35" t="n">
-        <v>534.603677789272</v>
+        <v>359.3521976759871</v>
       </c>
       <c r="H35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6965,22 +6965,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V35" t="n">
-        <v>2697.149091018222</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W35" t="n">
-        <v>2344.380435748108</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X35" t="n">
-        <v>1970.914677487028</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="Y35" t="n">
-        <v>1580.775345511217</v>
+        <v>777.3160057778002</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O36" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P36" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018223</v>
@@ -7069,10 +7069,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036445</v>
+        <v>291.7960311703076</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036445</v>
+        <v>122.8598482424007</v>
       </c>
       <c r="D37" t="n">
         <v>53.94298182036445</v>
@@ -7123,22 +7123,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>524.7650569960363</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V37" t="n">
-        <v>235.5914466506042</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W37" t="n">
-        <v>235.5914466506042</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X37" t="n">
-        <v>235.5914466506042</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y37" t="n">
-        <v>235.5914466506042</v>
+        <v>473.4444960005474</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1166.959449965771</v>
+        <v>2310.5492509541</v>
       </c>
       <c r="C38" t="n">
-        <v>797.9969330253591</v>
+        <v>1941.586734013689</v>
       </c>
       <c r="D38" t="n">
-        <v>439.7312344186087</v>
+        <v>1583.321035406938</v>
       </c>
       <c r="E38" t="n">
-        <v>53.94298182036445</v>
+        <v>1197.532782808694</v>
       </c>
       <c r="F38" t="n">
-        <v>53.94298182036445</v>
+        <v>786.5468780190865</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>368.5830699172734</v>
       </c>
       <c r="H38" t="n">
         <v>53.94298182036445</v>
@@ -7172,13 +7172,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7196,28 +7196,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U38" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V38" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W38" t="n">
-        <v>2070.717079250664</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X38" t="n">
-        <v>1697.251320989584</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y38" t="n">
-        <v>1307.111989013772</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="39">
@@ -7227,37 +7227,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036423</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036423</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L39" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M39" t="n">
         <v>1194.968834417902</v>
@@ -7272,22 +7272,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>348.0202652891861</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C40" t="n">
-        <v>348.0202652891861</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D40" t="n">
-        <v>348.0202652891861</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E40" t="n">
-        <v>348.0202652891861</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F40" t="n">
-        <v>348.0202652891861</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G40" t="n">
-        <v>348.0202652891861</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H40" t="n">
-        <v>190.2718927217162</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K40" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L40" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M40" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064342</v>
+        <v>2540.369809567131</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064342</v>
+        <v>2540.369809567131</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064342</v>
+        <v>2540.369809567131</v>
       </c>
       <c r="V40" t="n">
-        <v>473.4444960005474</v>
+        <v>2540.369809567131</v>
       </c>
       <c r="W40" t="n">
-        <v>473.4444960005474</v>
+        <v>2250.95263953017</v>
       </c>
       <c r="X40" t="n">
-        <v>473.4444960005474</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y40" t="n">
-        <v>348.0202652891861</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1568.353113282533</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C41" t="n">
-        <v>1568.353113282533</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D41" t="n">
-        <v>1210.087414675782</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E41" t="n">
-        <v>1210.087414675782</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F41" t="n">
-        <v>799.1015098861748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G41" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
         <v>53.94298182036445</v>
@@ -7436,25 +7436,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2520.971603332393</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="T41" t="n">
-        <v>2302.336936304455</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="U41" t="n">
-        <v>2252.184655896217</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="V41" t="n">
-        <v>1921.121768552647</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="W41" t="n">
-        <v>1568.353113282533</v>
+        <v>2317.164380266784</v>
       </c>
       <c r="X41" t="n">
-        <v>1568.353113282533</v>
+        <v>1943.698622005704</v>
       </c>
       <c r="Y41" t="n">
-        <v>1568.353113282533</v>
+        <v>1553.559290029893</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H42" t="n">
         <v>115.9856282673424</v>
@@ -7491,40 +7491,40 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>667.7988452409105</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="C43" t="n">
-        <v>498.8626623130036</v>
+        <v>2528.212908090316</v>
       </c>
       <c r="D43" t="n">
-        <v>348.7460229006679</v>
+        <v>2378.09626867798</v>
       </c>
       <c r="E43" t="n">
-        <v>200.8329293182748</v>
+        <v>2230.183175095587</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036445</v>
+        <v>2230.183175095587</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036445</v>
+        <v>2230.183175095587</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036445</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K43" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L43" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M43" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U43" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V43" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W43" t="n">
-        <v>667.7988452409105</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X43" t="n">
-        <v>667.7988452409105</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y43" t="n">
-        <v>667.7988452409105</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7622,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1116.950579244872</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C44" t="n">
-        <v>1116.950579244872</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D44" t="n">
-        <v>882.892694711785</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E44" t="n">
-        <v>882.892694711785</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F44" t="n">
-        <v>471.9067899221774</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036425</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036425</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036425</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7673,25 +7673,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018222</v>
+        <v>2584.09111292427</v>
       </c>
       <c r="T44" t="n">
-        <v>2478.514423990285</v>
+        <v>2584.09111292427</v>
       </c>
       <c r="U44" t="n">
-        <v>2224.752638628377</v>
+        <v>2330.329327562361</v>
       </c>
       <c r="V44" t="n">
-        <v>1893.689751284806</v>
+        <v>1999.266440218791</v>
       </c>
       <c r="W44" t="n">
-        <v>1893.689751284806</v>
+        <v>1646.497784948677</v>
       </c>
       <c r="X44" t="n">
-        <v>1893.689751284806</v>
+        <v>1273.032026687597</v>
       </c>
       <c r="Y44" t="n">
-        <v>1503.550419308994</v>
+        <v>882.8926947117852</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>438.9553738610022</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="C46" t="n">
-        <v>438.9553738610022</v>
+        <v>338.4002221349972</v>
       </c>
       <c r="D46" t="n">
-        <v>288.8387344486664</v>
+        <v>338.4002221349972</v>
       </c>
       <c r="E46" t="n">
-        <v>288.8387344486664</v>
+        <v>338.4002221349972</v>
       </c>
       <c r="F46" t="n">
-        <v>211.6913543878343</v>
+        <v>338.4002221349972</v>
       </c>
       <c r="G46" t="n">
-        <v>211.6913543878343</v>
+        <v>169.4004218733296</v>
       </c>
       <c r="H46" t="n">
         <v>53.94298182036445</v>
@@ -7837,19 +7837,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V46" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W46" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X46" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y46" t="n">
-        <v>438.9553738610022</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8535,7 +8535,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8775,7 +8775,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093296</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8784,7 +8784,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9018,7 +9018,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9246,7 +9246,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050818</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K21" t="n">
-        <v>145.0294169142015</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9492,7 +9492,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360591</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9720,7 +9720,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>145.0294169142015</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9963,7 +9963,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
-        <v>145.0294169142015</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L39" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>145.0294169142015</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11382,7 +11382,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22559,10 +22559,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>21.5676490672908</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -22592,7 +22592,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -22601,7 +22601,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.312542681255735</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22714,10 +22714,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>11.99007165458411</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22747,10 +22747,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -22768,7 +22768,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>207.3328331314806</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22781,25 +22781,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.9018946358315</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -22829,16 +22829,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>54.40502554674151</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -22847,10 +22847,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22948,13 +22948,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>82.85718120047571</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -22963,7 +22963,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22987,7 +22987,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -22996,7 +22996,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>267.905051984421</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23018,7 +23018,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23066,19 +23066,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>190.5979565233548</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>201.950486201286</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23182,7 +23182,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>13.94035269263864</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -23191,7 +23191,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>11.99007165458445</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -23224,7 +23224,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -23255,22 +23255,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>29.05210910025352</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>89.79231049789928</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
@@ -23303,7 +23303,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
@@ -23318,7 +23318,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23422,22 +23422,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890125</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
         <v>225.0351054580843</v>
@@ -23473,16 +23473,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>241.1333486527696</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23495,22 +23495,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>366.1282631732918</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>297.2791688105309</v>
       </c>
       <c r="I14" t="n">
         <v>151.9313162448613</v>
@@ -23540,7 +23540,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -23552,7 +23552,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23665,16 +23665,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>11.99007165458423</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>231.8063182229438</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23729,28 +23729,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>181.1964919298274</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>33.41461517716152</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,16 +23780,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23902,16 +23902,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>77.52516886756625</v>
       </c>
       <c r="H19" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,7 +23932,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
         <v>146.6651919801579</v>
@@ -23941,16 +23941,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>96.01048066168096</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23972,16 +23972,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -24014,19 +24014,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>168.0157151838688</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>120.1681237664919</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>82.85718120047564</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,13 +24142,13 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,7 +24169,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801579</v>
@@ -24206,19 +24206,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>73.76038744430531</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24251,7 +24251,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24260,19 +24260,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>266.3482344430063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24382,10 +24382,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,10 +24406,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
@@ -24418,10 +24418,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>96.01048066168096</v>
       </c>
       <c r="V25" t="n">
-        <v>242.6756726418388</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24440,25 +24440,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>343.6854410111254</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>57.10290914305097</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24488,7 +24488,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24500,13 +24500,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>120.1051426060693</v>
       </c>
       <c r="G28" t="n">
         <v>167.3098022590509</v>
@@ -24619,10 +24619,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,19 +24643,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>6.771212764859751</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24686,19 +24686,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>127.8176903426371</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,25 +24725,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>254.9845664555289</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24850,16 +24850,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>11.99007165458434</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,10 +24880,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
@@ -24892,13 +24892,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24926,16 +24926,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>12.42908554841733</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,13 +24962,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
         <v>251.2241675082893</v>
@@ -24977,13 +24977,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>133.1176128214994</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25081,22 +25081,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890127</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,7 +25117,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
         <v>146.6651919801579</v>
@@ -25135,13 +25135,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>63.37316471551387</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25151,13 +25151,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25166,13 +25166,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>115.4911022602333</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>21.5676490672908</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,19 +25199,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25312,10 +25312,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>80.38777526039645</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25330,10 +25330,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,7 +25354,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801579</v>
@@ -25363,13 +25363,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>23.70481751979031</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>243.9828280059589</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25400,13 +25400,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>12.42908554841733</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -25436,13 +25436,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
@@ -25451,13 +25451,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25564,13 +25564,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,13 +25591,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>56.93405031343812</v>
       </c>
       <c r="T40" t="n">
         <v>225.0351054580843</v>
@@ -25606,16 +25606,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>94.41466494784716</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25625,25 +25625,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -25673,28 +25673,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>147.4718178824608</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>201.5734099041338</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25795,19 +25795,19 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>85.98862503533394</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,7 +25828,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
@@ -25846,7 +25846,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>226.7961607607226</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25862,13 +25862,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>122.9657359329264</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25910,13 +25910,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>62.48831449595862</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25925,10 +25925,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26023,28 +26023,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>69.04514176270747</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>41.86802318935965</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,7 +26065,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801579</v>
@@ -26077,7 +26077,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26089,7 +26089,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>693966.2640378185</v>
+        <v>693966.2640378184</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>693966.2640378186</v>
+        <v>693966.2640378184</v>
       </c>
     </row>
     <row r="5">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>693966.2640378185</v>
+        <v>693966.2640378184</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>693966.2640378184</v>
+        <v>693966.2640378185</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>693966.2640378184</v>
+        <v>693966.2640378185</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>318067.8710173336</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="C2" t="n">
-        <v>318067.8710173335</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="D2" t="n">
         <v>318067.8710173335</v>
       </c>
       <c r="E2" t="n">
+        <v>318067.8710173335</v>
+      </c>
+      <c r="F2" t="n">
+        <v>318067.8710173335</v>
+      </c>
+      <c r="G2" t="n">
         <v>318067.8710173334</v>
       </c>
-      <c r="F2" t="n">
-        <v>318067.8710173334</v>
-      </c>
-      <c r="G2" t="n">
-        <v>318067.8710173333</v>
-      </c>
       <c r="H2" t="n">
-        <v>318067.8710173334</v>
+        <v>318067.8710173335</v>
       </c>
       <c r="I2" t="n">
         <v>318067.8710173334</v>
@@ -26338,10 +26338,10 @@
         <v>318067.8710173334</v>
       </c>
       <c r="K2" t="n">
+        <v>318067.8710173334</v>
+      </c>
+      <c r="L2" t="n">
         <v>318067.8710173335</v>
-      </c>
-      <c r="L2" t="n">
-        <v>318067.8710173333</v>
       </c>
       <c r="M2" t="n">
         <v>318067.8710173334</v>
@@ -26350,10 +26350,10 @@
         <v>318067.8710173335</v>
       </c>
       <c r="O2" t="n">
-        <v>318067.8710173331</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="P2" t="n">
-        <v>318067.8710173334</v>
+        <v>318067.8710173333</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26421,10 +26421,10 @@
         <v>513.1084990597035</v>
       </c>
       <c r="D4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="E4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597037</v>
       </c>
       <c r="F4" t="n">
         <v>513.1084990597035</v>
@@ -26433,7 +26433,7 @@
         <v>513.1084990597035</v>
       </c>
       <c r="H4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="I4" t="n">
         <v>513.1084990597035</v>
@@ -26473,13 +26473,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="F5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="G5" t="n">
         <v>49231.47806340946</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-355272.19475968</v>
+        <v>-355272.1947596802</v>
       </c>
       <c r="C6" t="n">
         <v>234695.6844548643</v>
@@ -26531,37 +26531,37 @@
         <v>268323.2844548643</v>
       </c>
       <c r="F6" t="n">
+        <v>268323.2844548644</v>
+      </c>
+      <c r="G6" t="n">
+        <v>268323.2844548643</v>
+      </c>
+      <c r="H6" t="n">
+        <v>268323.2844548644</v>
+      </c>
+      <c r="I6" t="n">
         <v>268323.2844548642</v>
       </c>
-      <c r="G6" t="n">
-        <v>268323.2844548642</v>
-      </c>
-      <c r="H6" t="n">
-        <v>268323.2844548642</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
+        <v>91900.0652622713</v>
+      </c>
+      <c r="K6" t="n">
         <v>268323.2844548643</v>
       </c>
-      <c r="J6" t="n">
-        <v>91900.06526227128</v>
-      </c>
-      <c r="K6" t="n">
-        <v>268323.2844548644</v>
-      </c>
       <c r="L6" t="n">
-        <v>268323.2844548642</v>
+        <v>268323.2844548643</v>
       </c>
       <c r="M6" t="n">
         <v>268323.2844548642</v>
       </c>
       <c r="N6" t="n">
-        <v>268323.2844548644</v>
+        <v>268323.2844548643</v>
       </c>
       <c r="O6" t="n">
-        <v>268323.284454864</v>
+        <v>268323.2844548642</v>
       </c>
       <c r="P6" t="n">
-        <v>268323.2844548643</v>
+        <v>268323.2844548642</v>
       </c>
     </row>
   </sheetData>
@@ -26735,19 +26735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170866</v>
@@ -26793,13 +26793,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="E4" t="n">
         <v>674.2872727545557</v>
       </c>
-      <c r="E4" t="n">
-        <v>674.2872727545556</v>
-      </c>
       <c r="F4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="G4" t="n">
         <v>674.2872727545556</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31136,7 +31136,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>86.4344768999344</v>
       </c>
       <c r="N3" t="n">
         <v>211.31907117367</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>60.29709682323551</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31756,19 +31756,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
@@ -31780,16 +31780,16 @@
         <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044143</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,16 +31829,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31856,22 +31856,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,16 +31908,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
         <v>79.14039391302239</v>
@@ -31932,16 +31932,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
@@ -31993,22 +31993,22 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L14" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
-        <v>270.9617944338299</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
         <v>255.8615389119866</v>
@@ -32020,13 +32020,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,16 +32066,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32093,22 +32093,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,16 +32145,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32169,16 +32169,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -32224,13 +32224,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
@@ -32248,22 +32248,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32303,22 +32303,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L18" t="n">
-        <v>56.98116194942361</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M18" t="n">
         <v>205.8702969983122</v>
@@ -32336,16 +32336,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,19 +32382,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32406,13 +32406,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
         <v>30.62819939701163</v>
@@ -32421,7 +32421,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -32461,13 +32461,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
@@ -32485,22 +32485,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,16 +32540,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32573,16 +32573,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,19 +32619,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32643,13 +32643,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
         <v>30.62819939701163</v>
@@ -32658,7 +32658,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U22" t="n">
         <v>0.0371551145131561</v>
@@ -32698,13 +32698,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
@@ -32722,22 +32722,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,16 +32777,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32807,19 +32807,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,19 +32856,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32880,13 +32880,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
         <v>30.62819939701163</v>
@@ -32895,7 +32895,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
-        <v>128.8865178727434</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
         <v>193.1674799081577</v>
@@ -32959,22 +32959,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,16 +33014,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33047,16 +33047,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,19 +33093,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33117,13 +33117,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
         <v>30.62819939701163</v>
@@ -33132,7 +33132,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -33172,13 +33172,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
@@ -33196,22 +33196,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,22 +33251,22 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L30" t="n">
-        <v>56.98116194942361</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M30" t="n">
         <v>205.8702969983122</v>
@@ -33281,19 +33281,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q30" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,19 +33330,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33354,13 +33354,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
         <v>30.62819939701163</v>
@@ -33369,7 +33369,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -33409,13 +33409,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
@@ -33433,22 +33433,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,16 +33488,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33521,16 +33521,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,19 +33567,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33591,13 +33591,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
         <v>30.62819939701163</v>
@@ -33606,7 +33606,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33646,13 +33646,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33670,22 +33670,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,16 +33725,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33758,16 +33758,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,19 +33804,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33828,13 +33828,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33843,7 +33843,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
-        <v>128.8865178727434</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
         <v>193.1674799081577</v>
@@ -33907,22 +33907,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,16 +33962,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33995,16 +33995,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,19 +34041,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34065,13 +34065,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34080,7 +34080,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34120,13 +34120,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34144,22 +34144,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q41" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,16 +34199,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34232,16 +34232,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,19 +34278,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34302,13 +34302,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34317,7 +34317,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34357,13 +34357,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34381,22 +34381,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,16 +34436,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I45" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396475</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34466,19 +34466,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q45" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323596</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,19 +34515,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34539,13 +34539,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
@@ -34554,7 +34554,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,19 +34784,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
         <v>406.5635087530452</v>
@@ -35428,7 +35428,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898695</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35495,16 +35495,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856235</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
         <v>173.8110948137341</v>
@@ -35644,19 +35644,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492232</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
         <v>406.5635087530452</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
@@ -35735,13 +35735,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
         <v>173.8110948137341</v>
@@ -35896,10 +35896,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
-        <v>289.2671274730086</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M18" t="n">
         <v>529.4413268262938</v>
@@ -35975,7 +35975,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
         <v>339.6412258735646</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36057,7 +36057,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36133,10 +36133,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
         <v>153.9975062898689</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36212,7 +36212,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245897</v>
+        <v>401.1632560839194</v>
       </c>
       <c r="P21" t="n">
         <v>339.6412258735646</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36294,7 +36294,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36370,10 +36370,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M24" t="n">
         <v>529.4413268262938</v>
@@ -36449,13 +36449,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36531,7 +36531,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K26" t="n">
         <v>297.2230414343419</v>
@@ -36607,10 +36607,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36683,10 +36683,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
         <v>339.6412258735646</v>
@@ -36753,7 +36753,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36768,7 +36768,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36844,10 +36844,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q29" t="n">
         <v>153.9975062898689</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M30" t="n">
         <v>529.4413268262938</v>
@@ -36923,13 +36923,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,7 +36990,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37005,7 +37005,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37081,10 +37081,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>138.3897561047526</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37160,7 +37160,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735646</v>
@@ -37227,7 +37227,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37242,7 +37242,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K35" t="n">
         <v>297.2230414343419</v>
@@ -37318,10 +37318,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37397,13 +37397,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37479,7 +37479,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
         <v>297.2230414343419</v>
@@ -37555,13 +37555,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L39" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M39" t="n">
         <v>529.4413268262938</v>
@@ -37634,7 +37634,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37716,7 +37716,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37792,13 +37792,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K42" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37871,13 +37871,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37953,7 +37953,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38029,10 +38029,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38102,19 +38102,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M45" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38190,7 +38190,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1489993.034742566</v>
+        <v>1513667.688860411</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>508365.1718633525</v>
+        <v>348765.8870054565</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1702443.552109826</v>
+        <v>4541732.173075099</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10763614.25366229</v>
+        <v>9513403.089520616</v>
       </c>
     </row>
     <row r="11">
@@ -667,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>130.1024780662194</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>234.5963544391286</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>9.790440613649858</v>
       </c>
       <c r="C4" t="n">
-        <v>43.31785343913997</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>325.2557485598865</v>
+        <v>87.22540059871861</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1107,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>223.1498336210773</v>
+        <v>156.1271626621473</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1138,16 +1138,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>5.983388191319379</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>58.20830658053315</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1293,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="Y10" t="n">
-        <v>205.1478855987998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,25 +1372,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>237.4541009793673</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>412.9169039459368</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4960408938906</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,22 +1417,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>212.651863114966</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>135.260060904611</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0669836643703</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>99.90681807664348</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>45.44580843958678</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20.90078060183531</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
-        <v>147.9721212459916</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T12" t="n">
-        <v>195.0194028815133</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1542,10 +1542,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>16.91544265059222</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>205.3658819001187</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>185.9669735090313</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>412.9169039459368</v>
+        <v>261.1914973982572</v>
       </c>
       <c r="H14" t="n">
-        <v>179.7188787253433</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,16 +1654,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0669836643703</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>99.90681807664348</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I15" t="n">
-        <v>45.44580843958678</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.90078060183531</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S15" t="n">
-        <v>147.9721212459916</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T15" t="n">
-        <v>195.0194028815133</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>64.78489835887071</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>17.69584188176918</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>115.2373148110772</v>
       </c>
       <c r="T16" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>238.2045589112693</v>
       </c>
     </row>
     <row r="18">
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>135.5574116118565</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H18" t="n">
-        <v>94.98542483262921</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670632</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T18" t="n">
-        <v>192.9654699154601</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8238751368068</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>114.930904319359</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>165.0140383262353</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>20.6880562520275</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113174</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>135.5574116118565</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H21" t="n">
-        <v>94.98542483262921</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670632</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T21" t="n">
-        <v>192.9654699154601</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8238751368068</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>283.3580910135614</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>77.06205461583825</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>203.8435192151918</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>174.3062600431768</v>
       </c>
     </row>
     <row r="26">
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2715,22 +2715,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>139.1537278750036</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>194.485985000257</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>411.9645167896915</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2958,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>104.6354350586187</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>21.21224374176667</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3037,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648052002</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>37.03135913814462</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,16 +3426,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>81.2342443714037</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>57.64843562452406</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>140.1129136102423</v>
       </c>
     </row>
   </sheetData>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1233.603060210037</v>
+        <v>554.3221432721089</v>
       </c>
       <c r="C2" t="n">
-        <v>864.6405432696254</v>
+        <v>185.3596263316971</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>185.3596263316971</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>185.3596263316971</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>185.3596263316971</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533142</v>
@@ -4336,7 +4336,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4348,34 +4348,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2010.34223224997</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>2010.34223224997</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W2" t="n">
-        <v>2010.34223224997</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X2" t="n">
-        <v>2010.34223224997</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y2" t="n">
-        <v>1620.202900274159</v>
+        <v>940.9219833362306</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4418,34 +4418,34 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>97.69838933464726</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4527,13 +4527,13 @@
         <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084171</v>
+        <v>210.7222632714565</v>
       </c>
       <c r="Y4" t="n">
-        <v>279.346854164887</v>
+        <v>210.7222632714565</v>
       </c>
     </row>
     <row r="5">
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>1579.049931616194</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2057.295728843237</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>2057.295728843237</v>
       </c>
       <c r="X5" t="n">
-        <v>2368.607930856721</v>
+        <v>1969.189263592006</v>
       </c>
       <c r="Y5" t="n">
-        <v>1978.468598880909</v>
+        <v>1579.049931616194</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4643,22 +4643,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4755,22 +4755,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="W7" t="n">
-        <v>502.7251118619119</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>808.0839286340174</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="C8" t="n">
-        <v>439.1214116936057</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D8" t="n">
-        <v>80.85571308685519</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4834,22 +4834,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2364.689465247513</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2364.689465247513</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>2011.920809977398</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.823100673951</v>
+        <v>1638.455051716319</v>
       </c>
       <c r="Y8" t="n">
-        <v>1194.683768698139</v>
+        <v>1638.455051716319</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4895,31 +4895,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.9088977430002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
         <v>53.94298182036445</v>
@@ -4998,16 +4998,16 @@
         <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>184.027325963587</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>520.9088977430002</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2334.584964297723</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C11" t="n">
-        <v>1965.622447357311</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D11" t="n">
-        <v>1725.769820105425</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E11" t="n">
-        <v>1339.981567507181</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F11" t="n">
-        <v>928.9956627175731</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G11" t="n">
-        <v>511.9078809540005</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H11" t="n">
-        <v>193.68476572651</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I11" t="n">
-        <v>73.9917951266205</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J11" t="n">
-        <v>262.6316941403561</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
-        <v>666.098807160401</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L11" t="n">
-        <v>1218.912065406599</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
-        <v>1850.62987638991</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>2477.937544449755</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
-        <v>3025.098749216831</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>3454.413795556125</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q11" t="n">
-        <v>3699.589756331025</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R11" t="n">
-        <v>3699.589756331025</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>3699.589756331025</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T11" t="n">
-        <v>3484.789894598736</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U11" t="n">
-        <v>3484.789894598736</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V11" t="n">
-        <v>3484.789894598736</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W11" t="n">
-        <v>3484.789894598736</v>
+        <v>2033.097625012799</v>
       </c>
       <c r="X11" t="n">
-        <v>3111.324136337656</v>
+        <v>1659.631866751719</v>
       </c>
       <c r="Y11" t="n">
-        <v>2721.184804361845</v>
+        <v>1269.492534775907</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>987.4134795532265</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>812.9604502720995</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>664.0260406108482</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>504.7885856053927</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2540276322776</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8126299914996</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
-        <v>119.8966521363041</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>73.9917951266205</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J12" t="n">
-        <v>192.6510469835158</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>522.0794512893251</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>752.0425571576743</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.377876687376</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1745.583568940158</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>2295.01957769288</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
-        <v>2586.942294054321</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>2656.336852567651</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R12" t="n">
-        <v>2635.224952969837</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2485.758163832472</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2288.76886799256</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
-        <v>2060.630080503725</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1825.477972271983</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
-        <v>1571.240615543781</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X12" t="n">
-        <v>1363.389115338248</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
-        <v>1155.628816573294</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>389.4885876291474</v>
+        <v>217.9192350259437</v>
       </c>
       <c r="C13" t="n">
-        <v>389.4885876291474</v>
+        <v>217.9192350259437</v>
       </c>
       <c r="D13" t="n">
-        <v>389.4885876291474</v>
+        <v>217.9192350259437</v>
       </c>
       <c r="E13" t="n">
-        <v>389.4885876291474</v>
+        <v>217.9192350259437</v>
       </c>
       <c r="F13" t="n">
-        <v>242.5986401312371</v>
+        <v>71.02928752803336</v>
       </c>
       <c r="G13" t="n">
-        <v>73.9917951266205</v>
+        <v>71.02928752803336</v>
       </c>
       <c r="H13" t="n">
-        <v>73.9917951266205</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I13" t="n">
-        <v>73.9917951266205</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J13" t="n">
-        <v>73.9917951266205</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K13" t="n">
-        <v>175.03972472223</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>359.8727196230479</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
-        <v>565.1423203422854</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>770.9656851783893</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O13" t="n">
-        <v>945.0605805669878</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P13" t="n">
-        <v>1070.508157165603</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q13" t="n">
-        <v>1073.926476585963</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R13" t="n">
-        <v>1073.926476585963</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S13" t="n">
-        <v>866.4861918383681</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T13" t="n">
-        <v>866.4861918383681</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U13" t="n">
-        <v>577.3340154160478</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V13" t="n">
-        <v>577.3340154160478</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W13" t="n">
-        <v>577.3340154160478</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X13" t="n">
-        <v>389.4885876291474</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y13" t="n">
-        <v>389.4885876291474</v>
+        <v>217.9192350259437</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2196.616170759897</v>
+        <v>1472.812633166742</v>
       </c>
       <c r="C14" t="n">
-        <v>1827.653653819485</v>
+        <v>1472.812633166742</v>
       </c>
       <c r="D14" t="n">
-        <v>1469.387955212735</v>
+        <v>1114.546934559991</v>
       </c>
       <c r="E14" t="n">
-        <v>1083.599702614491</v>
+        <v>728.758681961747</v>
       </c>
       <c r="F14" t="n">
-        <v>672.6137978248832</v>
+        <v>317.7727771721395</v>
       </c>
       <c r="G14" t="n">
-        <v>255.5260160613107</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H14" t="n">
-        <v>73.9917951266205</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I14" t="n">
-        <v>73.9917951266205</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J14" t="n">
-        <v>262.6316941403561</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>666.098807160401</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L14" t="n">
-        <v>1218.912065406599</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M14" t="n">
-        <v>1850.62987638991</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>2477.937544449755</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
-        <v>3025.098749216831</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>3454.413795556125</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q14" t="n">
-        <v>3699.589756331025</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R14" t="n">
-        <v>3699.589756331025</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>3699.589756331025</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T14" t="n">
-        <v>3699.589756331025</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U14" t="n">
-        <v>3699.589756331025</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V14" t="n">
-        <v>3699.589756331025</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="W14" t="n">
-        <v>3346.821101060911</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X14" t="n">
-        <v>2973.355342799831</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="Y14" t="n">
-        <v>2583.216010824019</v>
+        <v>1859.412473230863</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4134795532265</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9604502720995</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0260406108482</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>504.7885856053927</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2540276322776</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8126299914996</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H15" t="n">
-        <v>119.8966521363041</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>73.9917951266205</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J15" t="n">
-        <v>73.9917951266205</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>403.4201994324298</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L15" t="n">
-        <v>907.7817392985476</v>
+        <v>670.8219208598707</v>
       </c>
       <c r="M15" t="n">
-        <v>1548.327088765651</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N15" t="n">
-        <v>1548.327088765651</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>2001.655628026347</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2425.623396507183</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
-        <v>2656.336852567651</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R15" t="n">
-        <v>2635.224952969837</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
-        <v>2485.758163832472</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>2288.76886799256</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
-        <v>2060.630080503725</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.477972271983</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
-        <v>1571.240615543781</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X15" t="n">
-        <v>1363.389115338248</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y15" t="n">
-        <v>1155.628816573294</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>304.1956216554802</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C16" t="n">
-        <v>304.1956216554802</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D16" t="n">
-        <v>304.1956216554802</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E16" t="n">
-        <v>238.7563303838937</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F16" t="n">
-        <v>91.86638288598331</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G16" t="n">
-        <v>91.86638288598331</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H16" t="n">
-        <v>91.86638288598331</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I16" t="n">
-        <v>91.86638288598331</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J16" t="n">
-        <v>73.9917951266205</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K16" t="n">
-        <v>175.03972472223</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>359.8727196230479</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>565.1423203422854</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N16" t="n">
-        <v>770.9656851783893</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O16" t="n">
-        <v>945.0605805669878</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P16" t="n">
-        <v>1070.508157165603</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q16" t="n">
-        <v>1073.926476585963</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R16" t="n">
-        <v>1073.926476585963</v>
+        <v>579.9823256406187</v>
       </c>
       <c r="S16" t="n">
-        <v>1073.926476585963</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="T16" t="n">
-        <v>848.2972798983277</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="U16" t="n">
-        <v>848.2972798983277</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="V16" t="n">
-        <v>593.6127916924409</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="W16" t="n">
-        <v>304.1956216554802</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="X16" t="n">
-        <v>304.1956216554802</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y16" t="n">
-        <v>304.1956216554802</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2015.081949825207</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>1646.119432884796</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1287.853734278045</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>902.0654816798008</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>491.0795768901932</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>262.631694140357</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>666.0988071604024</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1218.912065406602</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>1850.629876389914</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>2477.93754444976</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3025.098749216837</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>3454.413795556132</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3368.526868987462</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3015.758213717348</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>2642.292455456268</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2401.681789889329</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E18" t="n">
-        <v>504.8063651047445</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>119.8966521363042</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028584</v>
+        <v>199.3493551844581</v>
       </c>
       <c r="L18" t="n">
-        <v>97.21709146028584</v>
+        <v>429.3124610528072</v>
       </c>
       <c r="M18" t="n">
-        <v>629.3975440735812</v>
+        <v>1069.857810519912</v>
       </c>
       <c r="N18" t="n">
-        <v>1433.809122337732</v>
+        <v>1452.219619273623</v>
       </c>
       <c r="O18" t="n">
-        <v>2103.272883640391</v>
+        <v>2001.655628026346</v>
       </c>
       <c r="P18" t="n">
-        <v>2623.573505376138</v>
+        <v>2425.623396507182</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2656.33685256765</v>
       </c>
       <c r="R18" t="n">
-        <v>2623.573505376138</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S18" t="n">
-        <v>2483.667400459913</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T18" t="n">
-        <v>2288.75278438369</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U18" t="n">
-        <v>2060.647860003077</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W18" t="n">
-        <v>1571.258395043133</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X18" t="n">
-        <v>1363.4068948376</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y18" t="n">
-        <v>1155.646596072646</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>213.3089140050929</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="C19" t="n">
-        <v>213.3089140050929</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>175.0397247222305</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>359.8727196230489</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>565.1423203422868</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>770.9656851783911</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>945.06058056699</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1070.508157165606</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="U19" t="n">
-        <v>1387.841167119728</v>
+        <v>784.7743001636452</v>
       </c>
       <c r="V19" t="n">
-        <v>1133.156678913841</v>
+        <v>530.0898119577583</v>
       </c>
       <c r="W19" t="n">
-        <v>843.7395088768801</v>
+        <v>240.6726419207977</v>
       </c>
       <c r="X19" t="n">
-        <v>615.7499579788628</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="Y19" t="n">
-        <v>394.9573788353326</v>
+        <v>73.99179512662066</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>1786.709430001884</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>1765.812403484685</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1407.546704877934</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1021.75845227969</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>610.7725474900824</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>193.6847657265099</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>193.6847657265099</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>262.631694140357</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>666.0988071604024</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1218.912065406602</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>1850.629876389914</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>2477.93754444976</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3025.098749216837</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>3454.413795556132</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>3543.374718827861</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>3543.374718827861</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>3289.683015573012</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3289.683015573012</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>2936.914360302897</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>2563.448602041818</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2173.309270066006</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E21" t="n">
-        <v>504.8063651047445</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>119.8966521363042</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="K21" t="n">
-        <v>508.1073603047985</v>
+        <v>398.5094058476896</v>
       </c>
       <c r="L21" t="n">
-        <v>1122.004430061687</v>
+        <v>628.4725117160388</v>
       </c>
       <c r="M21" t="n">
-        <v>1570.408513028025</v>
+        <v>1269.017861183143</v>
       </c>
       <c r="N21" t="n">
-        <v>2374.820091292176</v>
+        <v>1613.538516820761</v>
       </c>
       <c r="O21" t="n">
-        <v>2623.573505376138</v>
+        <v>2162.974525573484</v>
       </c>
       <c r="P21" t="n">
-        <v>2623.573505376138</v>
+        <v>2586.942294054321</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2656.33685256765</v>
       </c>
       <c r="R21" t="n">
-        <v>2623.573505376138</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S21" t="n">
-        <v>2483.667400459913</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T21" t="n">
-        <v>2288.75278438369</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U21" t="n">
-        <v>2060.647860003077</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W21" t="n">
-        <v>1571.258395043133</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X21" t="n">
-        <v>1363.4068948376</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y21" t="n">
-        <v>1155.646596072646</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>266.1532743881928</v>
+        <v>683.959591267211</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>515.0234083393041</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>515.0234083393041</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>367.110314756911</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>367.110314756911</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>198.5034697522944</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>198.5034697522944</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>175.0397247222305</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>359.8727196230489</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>565.1423203422868</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>770.9656851783911</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>945.06058056699</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1070.508157165606</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>943.4485153053681</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>943.4485153053681</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>943.4485153053681</v>
       </c>
       <c r="U22" t="n">
-        <v>1212.69597660481</v>
+        <v>943.4485153053681</v>
       </c>
       <c r="V22" t="n">
-        <v>958.0114883989231</v>
+        <v>943.4485153053681</v>
       </c>
       <c r="W22" t="n">
-        <v>668.5943183619626</v>
+        <v>943.4485153053681</v>
       </c>
       <c r="X22" t="n">
-        <v>668.5943183619626</v>
+        <v>865.6080560974507</v>
       </c>
       <c r="Y22" t="n">
-        <v>447.8017392184324</v>
+        <v>865.6080560974507</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6034,7 +6034,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>436.8967109626374</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L24" t="n">
-        <v>1050.793780719526</v>
+        <v>791.4103545382638</v>
       </c>
       <c r="M24" t="n">
-        <v>1819.161927111988</v>
+        <v>1559.778500930725</v>
       </c>
       <c r="N24" t="n">
-        <v>2623.573505376138</v>
+        <v>2364.190079194876</v>
       </c>
       <c r="O24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="P24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,25 +6211,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6238,7 +6238,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6268,10 +6268,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6314,10 +6314,10 @@
         <v>1122.004430061687</v>
       </c>
       <c r="M27" t="n">
-        <v>1570.408513028025</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N27" t="n">
-        <v>2374.820091292176</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
         <v>2623.573505376138</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>237.776412546148</v>
+        <v>881.753191430675</v>
       </c>
       <c r="C28" t="n">
-        <v>237.776412546148</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="D28" t="n">
-        <v>237.776412546148</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E28" t="n">
-        <v>237.776412546148</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6417,19 +6417,19 @@
         <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>1009.867621687013</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V28" t="n">
-        <v>755.183133481126</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W28" t="n">
-        <v>465.7659634441654</v>
+        <v>1102.545770574205</v>
       </c>
       <c r="X28" t="n">
-        <v>237.776412546148</v>
+        <v>1102.545770574205</v>
       </c>
       <c r="Y28" t="n">
-        <v>237.776412546148</v>
+        <v>881.753191430675</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="30">
@@ -6539,19 +6539,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L30" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061688</v>
       </c>
       <c r="M30" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N30" t="n">
         <v>2623.573505376138</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>416.2699138005285</v>
+        <v>990.7828679390639</v>
       </c>
       <c r="C31" t="n">
-        <v>247.3337308726216</v>
+        <v>821.846685011157</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U31" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V31" t="n">
-        <v>955.1031435655738</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W31" t="n">
-        <v>665.6859735286132</v>
+        <v>1393.223911912834</v>
       </c>
       <c r="X31" t="n">
-        <v>437.6964226305959</v>
+        <v>1393.223911912834</v>
       </c>
       <c r="Y31" t="n">
-        <v>416.2699138005285</v>
+        <v>1172.431332769303</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
         <v>1701.093169003441</v>
@@ -6697,22 +6697,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823781</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643324</v>
@@ -6724,22 +6724,22 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
         <v>3205.060556590537</v>
@@ -6776,25 +6776,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K33" t="n">
-        <v>263.5382936126482</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L33" t="n">
-        <v>877.4353633695368</v>
+        <v>1122.004430061688</v>
       </c>
       <c r="M33" t="n">
-        <v>1197.770682899239</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N33" t="n">
-        <v>1197.770682899239</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C34" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D34" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1461.510857287049</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T34" t="n">
-        <v>1237.725442076555</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>948.5968032901133</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V34" t="n">
-        <v>693.9123150842264</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W34" t="n">
-        <v>693.9123150842264</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>465.9227641862091</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y34" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6925,31 +6925,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7016,19 +7016,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.32563221405</v>
+        <v>802.0403666355641</v>
       </c>
       <c r="M36" t="n">
-        <v>2056.693778606511</v>
+        <v>1570.408513028025</v>
       </c>
       <c r="N36" t="n">
-        <v>2623.573505376138</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O36" t="n">
         <v>2623.573505376138</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>437.6964226305959</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C37" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7125,22 +7125,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>955.1031435655738</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W37" t="n">
-        <v>665.6859735286132</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X37" t="n">
-        <v>437.6964226305959</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y37" t="n">
-        <v>437.6964226305959</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="38">
@@ -7168,7 +7168,7 @@
         <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028562</v>
@@ -7177,7 +7177,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7186,7 +7186,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7256,13 +7256,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>508.1073603047985</v>
+        <v>436.8967109626376</v>
       </c>
       <c r="L39" t="n">
-        <v>1122.004430061687</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M39" t="n">
-        <v>1890.372576454149</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N39" t="n">
         <v>2623.573505376138</v>
@@ -7359,10 +7359,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
         <v>869.3083006011506</v>
@@ -7390,31 +7390,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7423,37 +7423,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7478,40 +7478,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="L42" t="n">
-        <v>1288.32563221405</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="M42" t="n">
-        <v>2056.693778606511</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="N42" t="n">
-        <v>2623.573505376138</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O42" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7611,10 +7611,10 @@
         <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="44">
@@ -7630,28 +7630,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7669,7 +7669,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7730,16 +7730,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>508.1073603047985</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L45" t="n">
-        <v>1122.004430061687</v>
+        <v>802.0403666355641</v>
       </c>
       <c r="M45" t="n">
-        <v>1890.372576454149</v>
+        <v>1570.408513028025</v>
       </c>
       <c r="N45" t="n">
-        <v>2623.573505376138</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O45" t="n">
         <v>2623.573505376138</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>324.3840174432676</v>
+        <v>822.6075462588844</v>
       </c>
       <c r="C46" t="n">
-        <v>155.4478345153607</v>
+        <v>653.6713633309776</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V46" t="n">
-        <v>1244.231782352015</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W46" t="n">
-        <v>954.8146123150548</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="X46" t="n">
-        <v>726.8250614170374</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="Y46" t="n">
-        <v>506.0324822735073</v>
+        <v>822.6075462588844</v>
       </c>
     </row>
   </sheetData>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142007</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9017,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9245,10 +9245,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9497,10 +9497,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9731,7 +9731,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -9968,7 +9968,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10439,13 +10439,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10679,7 +10679,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -11141,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>370.8623401849288</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11390,7 +11390,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -22552,22 +22552,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>283.6816919545756</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,10 +22597,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22704,31 +22704,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>170.0415395682874</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,22 +22749,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22773,7 +22773,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22783,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22804,7 +22804,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,10 +22834,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -22846,10 +22846,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>282.5057000797505</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22941,31 +22941,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,13 +22986,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23001,16 +23001,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>130.3958356744437</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23026,10 +23026,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -23038,10 +23038,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,16 +23071,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>193.0158609277561</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23089,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23178,31 +23178,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,19 +23223,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -23244,10 +23244,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>96.92615468724685</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23260,13 +23260,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>117.2289406413157</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>154.6528871281403</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>213.980907812802</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23430,16 +23430,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>152.7120966692326</v>
+        <v>139.2554461912029</v>
       </c>
       <c r="I13" t="n">
-        <v>123.2665578794171</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>17.69584188176918</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,31 +23460,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>129.1731816677914</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>223.3729047207587</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>39.74268188000582</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>152.5926726225378</v>
       </c>
       <c r="H14" t="n">
-        <v>135.3220053498723</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4960408938906</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>212.651863114966</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23560,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23661,22 +23661,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>81.64906428769847</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.9207765545704</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>152.7120966692326</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>123.2665578794171</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,28 +23697,28 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R16" t="n">
-        <v>129.1731816677914</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>205.3658819001187</v>
+        <v>96.90822413894169</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>286.260654658097</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>148.0333797447843</v>
       </c>
     </row>
     <row r="18">
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>33.68456869885334</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>60.69561706280189</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>344.5848355189801</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24022,13 +24022,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24135,22 +24135,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U22" t="n">
-        <v>2.87926138501598</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>148.6476007731989</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>82.39383318338557</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>44.278393308918</v>
       </c>
     </row>
     <row r="26">
@@ -24603,22 +24603,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>6.267320147927677</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24657,19 +24657,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>92.03701333633398</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,19 +24894,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>181.8875632779723</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>197.3724096103281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>160.8894508454586</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25314,16 +25314,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>51.71984429841024</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>65.19971827516547</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25332,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>90.96703739368829</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26043,7 +26043,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>78.47173974185247</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>985250.1238371405</v>
+        <v>693966.2640378184</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>985250.1238371405</v>
+        <v>693966.2640378184</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>985250.1238371405</v>
+        <v>693966.2640378184</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>810565.5736639766</v>
+        <v>693966.2640378185</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>810565.5736639764</v>
+        <v>693966.2640378184</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>938469.7433705018</v>
+        <v>810565.5736639773</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>938469.7433705016</v>
+        <v>810565.5736639772</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>938469.7433705016</v>
+        <v>938469.7433705017</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>938469.7433705017</v>
+        <v>938469.7433705018</v>
       </c>
     </row>
     <row r="12">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>938469.7433705017</v>
+        <v>938469.7433705018</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.973425356</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="C2" t="n">
-        <v>451572.9734253561</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.9734253559</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="E2" t="n">
-        <v>371509.2212626559</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="F2" t="n">
-        <v>371509.2212626557</v>
+        <v>318067.8710173333</v>
       </c>
       <c r="G2" t="n">
-        <v>430131.9657114799</v>
+        <v>371509.2212626563</v>
       </c>
       <c r="H2" t="n">
-        <v>430131.9657114799</v>
+        <v>371509.2212626562</v>
       </c>
       <c r="I2" t="n">
         <v>430131.9657114798</v>
       </c>
       <c r="J2" t="n">
+        <v>430131.9657114798</v>
+      </c>
+      <c r="K2" t="n">
+        <v>430131.9657114801</v>
+      </c>
+      <c r="L2" t="n">
         <v>430131.9657114799</v>
-      </c>
-      <c r="K2" t="n">
-        <v>430131.9657114798</v>
-      </c>
-      <c r="L2" t="n">
-        <v>430131.9657114797</v>
       </c>
       <c r="M2" t="n">
         <v>430131.9657114799</v>
       </c>
       <c r="N2" t="n">
+        <v>430131.9657114799</v>
+      </c>
+      <c r="O2" t="n">
+        <v>430131.9657114797</v>
+      </c>
+      <c r="P2" t="n">
         <v>430131.9657114798</v>
-      </c>
-      <c r="O2" t="n">
-        <v>430131.9657114798</v>
-      </c>
-      <c r="P2" t="n">
-        <v>430131.9657114799</v>
       </c>
     </row>
     <row r="3">
@@ -26374,37 +26374,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>248146.7686188426</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>263762.8892659104</v>
+        <v>236417.6520004564</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>255532.1595990977</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.825677256623749e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62453.05588965286</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>69864.88484991125</v>
+        <v>60309.5871370482</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.139180619</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.1391806191</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="E4" t="n">
-        <v>639.5264553066584</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="F4" t="n">
-        <v>639.5264553066582</v>
+        <v>513.1084990597037</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758695</v>
+        <v>639.5264553066593</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758695</v>
+        <v>639.5264553066593</v>
       </c>
       <c r="I4" t="n">
         <v>787.7936905758695</v>
@@ -26444,10 +26444,10 @@
         <v>787.7936905758695</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758696</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758696</v>
       </c>
       <c r="M4" t="n">
         <v>787.7936905758694</v>
@@ -26459,7 +26459,7 @@
         <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
     </row>
     <row r="5">
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>82859.07806340946</v>
+      </c>
+      <c r="C5" t="n">
         <v>82859.07806340947</v>
-      </c>
-      <c r="C5" t="n">
-        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>69171.54328360136</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="F5" t="n">
-        <v>69171.54328360136</v>
+        <v>49231.47806340948</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>69171.54328360151</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>69171.54328360151</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26496,19 +26496,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-360313.1230332171</v>
+        <v>-355879.0361342622</v>
       </c>
       <c r="C6" t="n">
-        <v>229654.7561813276</v>
+        <v>234088.8430802823</v>
       </c>
       <c r="D6" t="n">
-        <v>229654.7561813274</v>
+        <v>234088.8430802824</v>
       </c>
       <c r="E6" t="n">
-        <v>49912.12144296434</v>
+        <v>267716.4430802824</v>
       </c>
       <c r="F6" t="n">
-        <v>298058.8900618068</v>
+        <v>267716.4430802822</v>
       </c>
       <c r="G6" t="n">
-        <v>72619.36554655533</v>
+        <v>64916.57337709769</v>
       </c>
       <c r="H6" t="n">
-        <v>336382.2548124657</v>
+        <v>301334.2253775538</v>
       </c>
       <c r="I6" t="n">
-        <v>336382.2548124656</v>
+        <v>81727.22734711748</v>
       </c>
       <c r="J6" t="n">
-        <v>159959.0356198728</v>
+        <v>160836.1677536222</v>
       </c>
       <c r="K6" t="n">
-        <v>336382.2548124656</v>
+        <v>337259.3869462151</v>
       </c>
       <c r="L6" t="n">
-        <v>336382.2548124655</v>
+        <v>337259.3869462152</v>
       </c>
       <c r="M6" t="n">
-        <v>273929.1989228128</v>
+        <v>337259.3869462155</v>
       </c>
       <c r="N6" t="n">
-        <v>336382.2548124656</v>
+        <v>337259.3869462152</v>
       </c>
       <c r="O6" t="n">
-        <v>266517.3699625544</v>
+        <v>276949.7998091669</v>
       </c>
       <c r="P6" t="n">
-        <v>336382.2548124657</v>
+        <v>337259.3869462151</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>593.4761003380635</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
-        <v>593.4761003380635</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26764,19 +26764,19 @@
         <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="C4" t="n">
         <v>674.2872727545557</v>
-      </c>
-      <c r="C4" t="n">
-        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>924.8974390827563</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="F4" t="n">
-        <v>924.8974390827563</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>924.8974390827582</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253573</v>
+        <v>924.8974390827582</v>
       </c>
       <c r="I4" t="n">
         <v>1215.213643253573</v>
@@ -26816,10 +26816,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="M4" t="n">
         <v>1215.213643253573</v>
@@ -26968,25 +26968,25 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215.7324361209768</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>236.9063051160367</v>
+        <v>215.7324361209782</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>236.9063051160352</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,37 +27020,37 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>250.6101663282006</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>290.3162041708168</v>
+        <v>250.6101663282025</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>290.3162041708149</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>250.6101663282004</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>290.3162041708168</v>
+        <v>250.6101663282022</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>250.6101663282006</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>290.3162041708168</v>
+        <v>250.6101663282025</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,16 +27435,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>16.62781306916065</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27539,28 +27539,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>123.9289676594879</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,25 +27581,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>44.47535211858258</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,25 +27818,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>63.3731647155137</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>375.9469818809424</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28022,19 +28022,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,31 +28055,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>13.43676775329496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31138,7 +31138,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>86.43447689993485</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
         <v>211.31907117367</v>
@@ -31147,7 +31147,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>35.71704454957967</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
@@ -31369,7 +31369,7 @@
         <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653279</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31381,7 +31381,7 @@
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>73.87984549392672</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479578</v>
@@ -31615,13 +31615,13 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O9" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>35.71704454958012</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.385833569198244</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>24.43391804055151</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>91.97984867651536</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J11" t="n">
-        <v>202.4946418937396</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>303.4869768779013</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>376.5024309712521</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M11" t="n">
-        <v>418.9314987074814</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N11" t="n">
-        <v>425.7102483359659</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>401.9861157822508</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P11" t="n">
-        <v>343.0858495426692</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
-        <v>257.643184845757</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411493</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S11" t="n">
-        <v>54.36718245810503</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T11" t="n">
-        <v>10.44398644916532</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1908666855358594</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.276533498840363</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H12" t="n">
-        <v>12.32862615985298</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I12" t="n">
-        <v>43.95082441182829</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J12" t="n">
-        <v>120.604421484738</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K12" t="n">
-        <v>206.1321659070423</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N12" t="n">
-        <v>332.0050874900644</v>
+        <v>91.88325107529255</v>
       </c>
       <c r="O12" t="n">
-        <v>303.7197925947069</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>110.3830694425157</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>79.25705355080783</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S12" t="n">
-        <v>23.7110498578462</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>5.145325813308303</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08398246702897129</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.070202803888311</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H13" t="n">
-        <v>9.515075838206991</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I13" t="n">
-        <v>32.18391704784122</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>75.66333823490359</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K13" t="n">
-        <v>124.3381075790238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L13" t="n">
-        <v>159.1099695889949</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M13" t="n">
-        <v>167.7591540676922</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N13" t="n">
-        <v>163.7702163441087</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>151.2683017714133</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P13" t="n">
-        <v>129.4361645720917</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>89.61489115104759</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R13" t="n">
-        <v>48.12020970937805</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S13" t="n">
-        <v>18.65071613685356</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>4.572684707522782</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05837469839390794</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.385833569198244</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>24.43391804055151</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I14" t="n">
-        <v>91.97984867651536</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J14" t="n">
-        <v>202.4946418937396</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>303.4869768779013</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>376.5024309712521</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M14" t="n">
-        <v>418.9314987074814</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N14" t="n">
-        <v>425.7102483359659</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O14" t="n">
-        <v>401.9861157822508</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P14" t="n">
-        <v>343.0858495426692</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q14" t="n">
-        <v>257.643184845757</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411493</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S14" t="n">
-        <v>54.36718245810503</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T14" t="n">
-        <v>10.44398644916532</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1908666855358594</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.276533498840363</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H15" t="n">
-        <v>12.32862615985298</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I15" t="n">
-        <v>43.95082441182829</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K15" t="n">
-        <v>206.1321659070423</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L15" t="n">
-        <v>277.1701353512815</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M15" t="n">
-        <v>323.4444746842445</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O15" t="n">
-        <v>206.6415405825594</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P15" t="n">
-        <v>243.7619099671567</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
-        <v>162.9483813607453</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R15" t="n">
-        <v>79.25705355080783</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S15" t="n">
-        <v>23.7110498578462</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>5.145325813308303</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08398246702897129</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.070202803888311</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H16" t="n">
-        <v>9.515075838206991</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I16" t="n">
-        <v>32.18391704784122</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J16" t="n">
-        <v>75.66333823490359</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K16" t="n">
-        <v>124.3381075790238</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L16" t="n">
-        <v>159.1099695889949</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M16" t="n">
-        <v>167.7591540676922</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N16" t="n">
-        <v>163.7702163441087</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O16" t="n">
-        <v>151.2683017714133</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P16" t="n">
-        <v>129.4361645720917</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q16" t="n">
-        <v>89.61489115104759</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R16" t="n">
-        <v>48.12020970937805</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S16" t="n">
-        <v>18.65071613685356</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>4.572684707522782</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05837469839390794</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,13 +32305,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -32323,31 +32323,31 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>213.9849829127209</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>38.22338698595263</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8669502822383</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>91.9798486765156</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>418.9314987074824</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>201.1717683466985</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>129.3623873097339</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>5.145325813308316</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>9.515075838207014</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J22" t="n">
-        <v>105.8669502822383</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>159.1099695889953</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>89.61489115104781</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32788,13 +32788,13 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>48.48571443651693</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>342.2955526785772</v>
       </c>
       <c r="M24" t="n">
         <v>452.5584109724846</v>
@@ -32812,7 +32812,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677465</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>129.3623873097339</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -33174,10 +33174,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,37 +33186,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,22 +33259,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>224.6051223555648</v>
+        <v>392.6063366508798</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -33292,7 +33292,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,10 +33411,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,37 +33423,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>94.51601612995671</v>
       </c>
       <c r="O33" t="n">
-        <v>365.2922922641173</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>100.1578341526431</v>
@@ -33529,7 +33529,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,16 +33675,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,19 +33736,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>64.61606107314793</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -33763,10 +33763,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33976,16 +33976,16 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>216.4869287318327</v>
       </c>
       <c r="L39" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>392.6063366508803</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -34000,10 +34000,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,37 +34210,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34450,16 +34450,16 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>353.0329386354462</v>
       </c>
       <c r="M45" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>392.6063366508803</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -34786,7 +34786,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338903</v>
@@ -34795,7 +34795,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35017,7 +35017,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35029,7 +35029,7 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.5453525391271</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K11" t="n">
-        <v>407.5425384040855</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>558.3972305517153</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M11" t="n">
-        <v>638.0987989730411</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N11" t="n">
-        <v>633.6441091513591</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O11" t="n">
-        <v>552.6880856233095</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P11" t="n">
-        <v>433.6515619588823</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
-        <v>247.6524856312122</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.8578301584801</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K12" t="n">
-        <v>332.7559639452619</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>680.0057497502846</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O12" t="n">
-        <v>554.9858674269919</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>294.8714306681226</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,25 +35570,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>102.0686157531409</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L13" t="n">
-        <v>186.6999948493111</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M13" t="n">
-        <v>207.3430310295328</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N13" t="n">
-        <v>207.9023887233373</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O13" t="n">
-        <v>175.853429685453</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>126.7147238369852</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.452847899353202</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.5453525391271</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K14" t="n">
-        <v>407.5425384040855</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>558.3972305517153</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M14" t="n">
-        <v>638.0987989730411</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N14" t="n">
-        <v>633.6441091513591</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O14" t="n">
-        <v>552.6880856233095</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P14" t="n">
-        <v>433.6515619588823</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q14" t="n">
-        <v>247.6524856312122</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K15" t="n">
-        <v>332.7559639452619</v>
+        <v>138.3897561047519</v>
       </c>
       <c r="L15" t="n">
-        <v>509.4561008748665</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M15" t="n">
-        <v>647.0155045122261</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O15" t="n">
-        <v>457.9076154148445</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P15" t="n">
-        <v>428.2502711927636</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
-        <v>233.0438950105729</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,25 +35807,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>102.0686157531409</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L16" t="n">
-        <v>186.6999948493111</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M16" t="n">
-        <v>207.3430310295328</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N16" t="n">
-        <v>207.9023887233373</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O16" t="n">
-        <v>175.853429685453</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P16" t="n">
-        <v>126.7147238369852</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.452847899353202</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>537.5560127407025</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>386.2240492461729</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>552.6880856233106</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>327.7955663849181</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>452.9334171377155</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>251.2660748322851</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>3.452847899353429</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>175.1095124747365</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>574.5815182021622</v>
       </c>
       <c r="M24" t="n">
         <v>776.1294408004662</v>
@@ -36451,7 +36451,7 @@
         <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36682,13 +36682,13 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>452.9334171377155</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O27" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N30" t="n">
-        <v>572.6057846157851</v>
+        <v>740.6069989111</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M33" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>442.5166783901769</v>
       </c>
       <c r="O33" t="n">
-        <v>616.5583670964024</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,22 +37384,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>296.9020265967329</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>343.1107267700523</v>
       </c>
       <c r="L39" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>740.6069989111005</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>228.7283062629105</v>
       </c>
       <c r="N42" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38098,19 +38098,19 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>585.3189041590311</v>
       </c>
       <c r="M45" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>740.6069989111005</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
